--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SirSeebs\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SirSeebs\Documents\GitHub\Project-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Project 7 Worktime</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>started respawning</t>
+  </si>
+  <si>
+    <t>4 hrs</t>
+  </si>
+  <si>
+    <t>Finished team spanwing functionality</t>
   </si>
 </sst>
 </file>
@@ -381,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,9 +484,21 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42351</v>
+      </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SirSeebs\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SirSeebs\Documents\GitHub\Project-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Project 7 Worktime</t>
   </si>
@@ -63,6 +63,24 @@
   </si>
   <si>
     <t>started respawning</t>
+  </si>
+  <si>
+    <t>3 hrs</t>
+  </si>
+  <si>
+    <t>Flag networked</t>
+  </si>
+  <si>
+    <t>Andfrew</t>
+  </si>
+  <si>
+    <t>1 hr</t>
+  </si>
+  <si>
+    <t>respawn timer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew </t>
   </si>
 </sst>
 </file>
@@ -381,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +483,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>42349</v>
+        <v>42320</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -478,8 +496,39 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42329</v>
+      </c>
       <c r="B8" t="s">
         <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42329</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42330</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
